--- a/01_doc/Liste_etudiants (1).xlsx
+++ b/01_doc/Liste_etudiants (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\2022_ST2PTT\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941EABD5-A663-4799-A3BB-739C00904DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D36B9-5989-47DB-96DC-4D3242E88918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>number</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Encadrant</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>save to card</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -776,7 +782,7 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
+    <row r="2" spans="1:9" s="5" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -815,8 +821,11 @@
       <c r="F2" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="I2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -836,7 +845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,8 +864,11 @@
       <c r="F4" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -876,7 +888,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1">
+    <row r="6" spans="1:9" s="5" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -895,8 +907,11 @@
       <c r="F6" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1">
+      <c r="I6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -919,7 +934,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -941,8 +956,11 @@
       <c r="G8" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -962,7 +980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1">
+    <row r="10" spans="1:9" s="5" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -984,8 +1002,11 @@
       <c r="G10" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1">
+      <c r="I10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1024,8 +1045,11 @@
       <c r="F12" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1">
+    <row r="14" spans="1:9" s="5" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1064,8 +1088,11 @@
       <c r="F14" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="I14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1107,8 +1134,11 @@
       <c r="F16" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1128,7 +1158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1">
+    <row r="18" spans="1:9" s="5" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -1147,8 +1177,11 @@
       <c r="F18" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
@@ -1171,7 +1204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -1190,8 +1223,11 @@
       <c r="F20" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
@@ -1211,43 +1247,49 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="I22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -1265,7 +1307,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
@@ -1285,7 +1327,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
       <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
